--- a/sales_profit_colorscale.xlsx
+++ b/sales_profit_colorscale.xlsx
@@ -6346,6 +6346,16 @@
         <color rgb="00ff0000"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="90"/>
+        <color rgb="00F2B5EC"/>
+        <color rgb="00FFFF66"/>
+        <color rgb="0081DC3B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
